--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H2">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I2">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J2">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>344.5718960718099</v>
+        <v>424.526819245592</v>
       </c>
       <c r="R2">
-        <v>344.5718960718099</v>
+        <v>3820.741373210328</v>
       </c>
       <c r="S2">
-        <v>0.0001993373549647107</v>
+        <v>0.0002310026940253909</v>
       </c>
       <c r="T2">
-        <v>0.0001993373549647107</v>
+        <v>0.0002396473410430478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H3">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I3">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J3">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>17954.50892643616</v>
+        <v>19986.00207033329</v>
       </c>
       <c r="R3">
-        <v>17954.50892643616</v>
+        <v>179874.0186329996</v>
       </c>
       <c r="S3">
-        <v>0.01038681436265538</v>
+        <v>0.01087521473731242</v>
       </c>
       <c r="T3">
-        <v>0.01038681436265538</v>
+        <v>0.01128219004572572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H4">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I4">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J4">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>11855.03682629706</v>
+        <v>12621.69719867261</v>
       </c>
       <c r="R4">
-        <v>11855.03682629706</v>
+        <v>113595.2747880535</v>
       </c>
       <c r="S4">
-        <v>0.006858225267074031</v>
+        <v>0.006867990251469552</v>
       </c>
       <c r="T4">
-        <v>0.006858225267074031</v>
+        <v>0.007125006091458575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H5">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I5">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J5">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>13915.12159542628</v>
+        <v>15033.82874087748</v>
       </c>
       <c r="R5">
-        <v>13915.12159542628</v>
+        <v>135304.4586678973</v>
       </c>
       <c r="S5">
-        <v>0.008049999330956839</v>
+        <v>0.008180531319153184</v>
       </c>
       <c r="T5">
-        <v>0.008049999330956839</v>
+        <v>0.008486665435767399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>102.578566984033</v>
+        <v>107.565699</v>
       </c>
       <c r="H6">
-        <v>102.578566984033</v>
+        <v>322.697097</v>
       </c>
       <c r="I6">
-        <v>0.0279280114604062</v>
+        <v>0.02858134952685079</v>
       </c>
       <c r="J6">
-        <v>0.0279280114604062</v>
+        <v>0.02881178879290993</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>4206.749288530294</v>
+        <v>4459.520491853225</v>
       </c>
       <c r="R6">
-        <v>4206.749288530294</v>
+        <v>26757.12295111935</v>
       </c>
       <c r="S6">
-        <v>0.002433635144755242</v>
+        <v>0.002426610524890243</v>
       </c>
       <c r="T6">
-        <v>0.002433635144755242</v>
+        <v>0.001678279878915184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>163.281370938049</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H7">
-        <v>163.281370938049</v>
+        <v>528.036949</v>
       </c>
       <c r="I7">
-        <v>0.0444549395931655</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J7">
-        <v>0.0444549395931655</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>548.4788219559123</v>
+        <v>694.6633498940863</v>
       </c>
       <c r="R7">
-        <v>548.4788219559123</v>
+        <v>6251.970149046776</v>
       </c>
       <c r="S7">
-        <v>0.0003172989987554494</v>
+        <v>0.000377995212531918</v>
       </c>
       <c r="T7">
-        <v>0.0003172989987554494</v>
+        <v>0.000392140654430286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>163.281370938049</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H8">
-        <v>163.281370938049</v>
+        <v>528.036949</v>
       </c>
       <c r="I8">
-        <v>0.0444549395931655</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J8">
-        <v>0.0444549395931655</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>28579.4286099187</v>
+        <v>32703.57141120013</v>
       </c>
       <c r="R8">
-        <v>28579.4286099187</v>
+        <v>294332.1427008011</v>
       </c>
       <c r="S8">
-        <v>0.01653340789092303</v>
+        <v>0.01779537300767936</v>
       </c>
       <c r="T8">
-        <v>0.01653340789092303</v>
+        <v>0.01846131640218375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>163.281370938049</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H9">
-        <v>163.281370938049</v>
+        <v>528.036949</v>
       </c>
       <c r="I9">
-        <v>0.0444549395931655</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J9">
-        <v>0.0444549395931655</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>18870.47872115571</v>
+        <v>20653.1838741299</v>
       </c>
       <c r="R9">
-        <v>18870.47872115571</v>
+        <v>185878.6548671691</v>
       </c>
       <c r="S9">
-        <v>0.01091670956939886</v>
+        <v>0.01123825609793981</v>
       </c>
       <c r="T9">
-        <v>0.01091670956939886</v>
+        <v>0.01165881724104943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>163.281370938049</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H10">
-        <v>163.281370938049</v>
+        <v>528.036949</v>
       </c>
       <c r="I10">
-        <v>0.0444549395931655</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J10">
-        <v>0.0444549395931655</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>22149.65755199639</v>
+        <v>24600.21219255486</v>
       </c>
       <c r="R10">
-        <v>22149.65755199639</v>
+        <v>221401.9097329937</v>
       </c>
       <c r="S10">
-        <v>0.01281373843927462</v>
+        <v>0.01338599832202579</v>
       </c>
       <c r="T10">
-        <v>0.01281373843927462</v>
+        <v>0.01388693287156027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>163.281370938049</v>
+        <v>176.0123163333334</v>
       </c>
       <c r="H11">
-        <v>163.281370938049</v>
+        <v>528.036949</v>
       </c>
       <c r="I11">
-        <v>0.0444549395931655</v>
+        <v>0.04676834326297298</v>
       </c>
       <c r="J11">
-        <v>0.0444549395931655</v>
+        <v>0.04714541652489843</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>6696.172614019909</v>
+        <v>7297.21964161691</v>
       </c>
       <c r="R11">
-        <v>6696.172614019909</v>
+        <v>43783.31784970145</v>
       </c>
       <c r="S11">
-        <v>0.003873784694813547</v>
+        <v>0.003970720622796098</v>
       </c>
       <c r="T11">
-        <v>0.003873784694813547</v>
+        <v>0.002746209355674691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1790.6471251795</v>
+        <v>1855.177368</v>
       </c>
       <c r="H12">
-        <v>1790.6471251795</v>
+        <v>5565.532104</v>
       </c>
       <c r="I12">
-        <v>0.4875210768087718</v>
+        <v>0.4929403451290834</v>
       </c>
       <c r="J12">
-        <v>0.4875210768087718</v>
+        <v>0.4969147134924725</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>6014.96680310105</v>
+        <v>7321.781520458943</v>
       </c>
       <c r="R12">
-        <v>6014.96680310105</v>
+        <v>65896.0336841305</v>
       </c>
       <c r="S12">
-        <v>0.003479702164917211</v>
+        <v>0.003984085762348218</v>
       </c>
       <c r="T12">
-        <v>0.003479702164917211</v>
+        <v>0.004133179327031007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1790.6471251795</v>
+        <v>1855.177368</v>
       </c>
       <c r="H13">
-        <v>1790.6471251795</v>
+        <v>5565.532104</v>
       </c>
       <c r="I13">
-        <v>0.4875210768087718</v>
+        <v>0.4929403451290834</v>
       </c>
       <c r="J13">
-        <v>0.4875210768087718</v>
+        <v>0.4969147134924725</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>313420.1494366456</v>
+        <v>344697.0461994902</v>
       </c>
       <c r="R13">
-        <v>313420.1494366456</v>
+        <v>3102273.415795412</v>
       </c>
       <c r="S13">
-        <v>0.1813158423353396</v>
+        <v>0.187563995217491</v>
       </c>
       <c r="T13">
-        <v>0.1813158423353396</v>
+        <v>0.1945830671755803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1790.6471251795</v>
+        <v>1855.177368</v>
       </c>
       <c r="H14">
-        <v>1790.6471251795</v>
+        <v>5565.532104</v>
       </c>
       <c r="I14">
-        <v>0.4875210768087718</v>
+        <v>0.4929403451290834</v>
       </c>
       <c r="J14">
-        <v>0.4875210768087718</v>
+        <v>0.4969147134924725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>206945.6440662719</v>
+        <v>217685.4443973485</v>
       </c>
       <c r="R14">
-        <v>206945.6440662719</v>
+        <v>1959168.999576136</v>
       </c>
       <c r="S14">
-        <v>0.1197195644215919</v>
+        <v>0.1184517015798033</v>
       </c>
       <c r="T14">
-        <v>0.1197195644215919</v>
+        <v>0.1228844340772246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1790.6471251795</v>
+        <v>1855.177368</v>
       </c>
       <c r="H15">
-        <v>1790.6471251795</v>
+        <v>5565.532104</v>
       </c>
       <c r="I15">
-        <v>0.4875210768087718</v>
+        <v>0.4929403451290834</v>
       </c>
       <c r="J15">
-        <v>0.4875210768087718</v>
+        <v>0.4969147134924725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>242907.1999538825</v>
+        <v>259287.2922665044</v>
       </c>
       <c r="R15">
-        <v>242907.1999538825</v>
+        <v>2333585.630398539</v>
       </c>
       <c r="S15">
-        <v>0.1405235867831776</v>
+        <v>0.1410889967954206</v>
       </c>
       <c r="T15">
-        <v>0.1405235867831776</v>
+        <v>0.1463688684459117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1790.6471251795</v>
+        <v>1855.177368</v>
       </c>
       <c r="H16">
-        <v>1790.6471251795</v>
+        <v>5565.532104</v>
       </c>
       <c r="I16">
-        <v>0.4875210768087718</v>
+        <v>0.4929403451290834</v>
       </c>
       <c r="J16">
-        <v>0.4875210768087718</v>
+        <v>0.4969147134924725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>73434.47799412333</v>
+        <v>76913.00819435323</v>
       </c>
       <c r="R16">
-        <v>73434.47799412333</v>
+        <v>461478.0491661194</v>
       </c>
       <c r="S16">
-        <v>0.04248238110374546</v>
+        <v>0.0418515657740204</v>
       </c>
       <c r="T16">
-        <v>0.04248238110374546</v>
+        <v>0.02894516446672493</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1528.19385765475</v>
+        <v>1534.435017666667</v>
       </c>
       <c r="H17">
-        <v>1528.19385765475</v>
+        <v>4603.305053</v>
       </c>
       <c r="I17">
-        <v>0.4160656248682781</v>
+        <v>0.4077156935146256</v>
       </c>
       <c r="J17">
-        <v>0.4160656248682781</v>
+        <v>0.4110029317566841</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>5133.359439300366</v>
+        <v>6055.915811871252</v>
       </c>
       <c r="R17">
-        <v>5133.359439300366</v>
+        <v>54503.24230684127</v>
       </c>
       <c r="S17">
-        <v>0.002969685875077904</v>
+        <v>0.003295275596060584</v>
       </c>
       <c r="T17">
-        <v>0.002969685875077904</v>
+        <v>0.003418592315261753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1528.19385765475</v>
+        <v>1534.435017666667</v>
       </c>
       <c r="H18">
-        <v>1528.19385765475</v>
+        <v>4603.305053</v>
       </c>
       <c r="I18">
-        <v>0.4160656248682781</v>
+        <v>0.4077156935146256</v>
       </c>
       <c r="J18">
-        <v>0.4160656248682781</v>
+        <v>0.4110029317566841</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>267482.4874757513</v>
+        <v>285102.2372836335</v>
       </c>
       <c r="R18">
-        <v>267482.4874757513</v>
+        <v>2565920.135552702</v>
       </c>
       <c r="S18">
-        <v>0.154740569851018</v>
+        <v>0.1551359817554551</v>
       </c>
       <c r="T18">
-        <v>0.154740569851018</v>
+        <v>0.1609415235811543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1528.19385765475</v>
+        <v>1534.435017666667</v>
       </c>
       <c r="H19">
-        <v>1528.19385765475</v>
+        <v>4603.305053</v>
       </c>
       <c r="I19">
-        <v>0.4160656248682781</v>
+        <v>0.4077156935146256</v>
       </c>
       <c r="J19">
-        <v>0.4160656248682781</v>
+        <v>0.4110029317566841</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>176613.8384740548</v>
+        <v>180049.7216499148</v>
       </c>
       <c r="R19">
-        <v>176613.8384740548</v>
+        <v>1620447.494849234</v>
       </c>
       <c r="S19">
-        <v>0.1021723936656917</v>
+        <v>0.09797253995298423</v>
       </c>
       <c r="T19">
-        <v>0.1021723936656917</v>
+        <v>0.101638895572299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1528.19385765475</v>
+        <v>1534.435017666667</v>
       </c>
       <c r="H20">
-        <v>1528.19385765475</v>
+        <v>4603.305053</v>
       </c>
       <c r="I20">
-        <v>0.4160656248682781</v>
+        <v>0.4077156935146256</v>
       </c>
       <c r="J20">
-        <v>0.4160656248682781</v>
+        <v>0.4110029317566841</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>207304.5469036376</v>
+        <v>214459.009554765</v>
       </c>
       <c r="R20">
-        <v>207304.5469036376</v>
+        <v>1930131.085992885</v>
       </c>
       <c r="S20">
-        <v>0.1199271923306159</v>
+        <v>0.1166960642279426</v>
       </c>
       <c r="T20">
-        <v>0.1199271923306159</v>
+        <v>0.121063096776444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1528.19385765475</v>
+        <v>1534.435017666667</v>
       </c>
       <c r="H21">
-        <v>1528.19385765475</v>
+        <v>4603.305053</v>
       </c>
       <c r="I21">
-        <v>0.4160656248682781</v>
+        <v>0.4077156935146256</v>
       </c>
       <c r="J21">
-        <v>0.4160656248682781</v>
+        <v>0.4110029317566841</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>62671.26371950737</v>
+        <v>63615.4877281248</v>
       </c>
       <c r="R21">
-        <v>62671.26371950737</v>
+        <v>381692.9263687488</v>
       </c>
       <c r="S21">
-        <v>0.03625578314587476</v>
+        <v>0.03461583198218309</v>
       </c>
       <c r="T21">
-        <v>0.03625578314587476</v>
+        <v>0.0239408235115251</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>88.26258863851329</v>
+        <v>90.30225350000001</v>
       </c>
       <c r="H22">
-        <v>88.26258863851329</v>
+        <v>180.604507</v>
       </c>
       <c r="I22">
-        <v>0.0240303472693785</v>
+        <v>0.02399426856646732</v>
       </c>
       <c r="J22">
-        <v>0.0240303472693785</v>
+        <v>0.0161251494330351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>296.4830608728688</v>
+        <v>356.3936162313614</v>
       </c>
       <c r="R22">
-        <v>296.4830608728688</v>
+        <v>2138.361697388168</v>
       </c>
       <c r="S22">
-        <v>0.0001715176130728965</v>
+        <v>0.0001939285853110459</v>
       </c>
       <c r="T22">
-        <v>0.0001715176130728965</v>
+        <v>0.0001341238898190042</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>88.26258863851329</v>
+        <v>90.30225350000001</v>
       </c>
       <c r="H23">
-        <v>88.26258863851329</v>
+        <v>180.604507</v>
       </c>
       <c r="I23">
-        <v>0.0240303472693785</v>
+        <v>0.02399426856646732</v>
       </c>
       <c r="J23">
-        <v>0.0240303472693785</v>
+        <v>0.0161251494330351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>15448.75778803987</v>
+        <v>16778.40651978436</v>
       </c>
       <c r="R23">
-        <v>15448.75778803987</v>
+        <v>100670.4391187061</v>
       </c>
       <c r="S23">
-        <v>0.008937219053745935</v>
+        <v>0.009129828627578782</v>
       </c>
       <c r="T23">
-        <v>0.008937219053745935</v>
+        <v>0.006314325074602708</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>88.26258863851329</v>
+        <v>90.30225350000001</v>
       </c>
       <c r="H24">
-        <v>88.26258863851329</v>
+        <v>180.604507</v>
       </c>
       <c r="I24">
-        <v>0.0240303472693785</v>
+        <v>0.02399426856646732</v>
       </c>
       <c r="J24">
-        <v>0.0240303472693785</v>
+        <v>0.0161251494330351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>10200.53476528635</v>
+        <v>10596.01444169274</v>
       </c>
       <c r="R24">
-        <v>10200.53476528635</v>
+        <v>63576.08665015642</v>
       </c>
       <c r="S24">
-        <v>0.005901083757898819</v>
+        <v>0.005765732036229618</v>
       </c>
       <c r="T24">
-        <v>0.005901083757898819</v>
+        <v>0.003987665908627226</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>88.26258863851329</v>
+        <v>90.30225350000001</v>
       </c>
       <c r="H25">
-        <v>88.26258863851329</v>
+        <v>180.604507</v>
       </c>
       <c r="I25">
-        <v>0.0240303472693785</v>
+        <v>0.02399426856646732</v>
       </c>
       <c r="J25">
-        <v>0.0240303472693785</v>
+        <v>0.0161251494330351</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>11973.1118238684</v>
+        <v>12621.01791421728</v>
       </c>
       <c r="R25">
-        <v>11973.1118238684</v>
+        <v>75726.10748530371</v>
       </c>
       <c r="S25">
-        <v>0.006926532514332616</v>
+        <v>0.006867620624553002</v>
       </c>
       <c r="T25">
-        <v>0.006926532514332616</v>
+        <v>0.004749748421507218</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.26258863851329</v>
+        <v>90.30225350000001</v>
       </c>
       <c r="H26">
-        <v>88.26258863851329</v>
+        <v>180.604507</v>
       </c>
       <c r="I26">
-        <v>0.0240303472693785</v>
+        <v>0.02399426856646732</v>
       </c>
       <c r="J26">
-        <v>0.0240303472693785</v>
+        <v>0.0161251494330351</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>3619.650701658785</v>
+        <v>3743.802659096509</v>
       </c>
       <c r="R26">
-        <v>3619.650701658785</v>
+        <v>14975.21063638604</v>
       </c>
       <c r="S26">
-        <v>0.00209399433032824</v>
+        <v>0.002037158692794873</v>
       </c>
       <c r="T26">
-        <v>0.00209399433032824</v>
+        <v>0.000939286138478948</v>
       </c>
     </row>
   </sheetData>
